--- a/Output_testing/R1_201907/Country/HKD/MN/TUNISIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TUNISIA_201907_HKD_MN.xlsx
@@ -810,136 +810,441 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>877.84325</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>57.03004851093721</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>532.0892260000001</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>43.68326231126539</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>871.521434</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>60.45367984270504</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>516.795989</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>61.96841997899285</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>8.861318829725008</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>91.645826</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>5.953871494261544</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>113.122987</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.287128686486248</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>138.219884</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9.587716709250584</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>93.320256</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.18992588844401</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>16.39321756680148</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>94.600359</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.145815967625285</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>106.782116</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.766558230179179</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>76.710714</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.321091098559616</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>40.607513</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.869200755128949</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-22.90736394623043</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>61.347085</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.985480589563783</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>59.658652</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.897833703651232</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>68.79468199999999</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.771990129285453</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>36.927705</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.427959157980915</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-12.55802773586422</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>98.60197700000001</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>6.405785465211829</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>134.893561</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>11.07444113003648</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>73.09612</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.070362315637493</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>34.488266</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.135448798607491</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-36.03037799099914</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>43.199156</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.806480499008842</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>49.750826</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.084424709550729</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>49.980616</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.466939584190629</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>26.109919</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.130810727343871</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-26.76103237250952</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>22.807431</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.481709742986408</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>15.140034</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.242960849997509</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>17.279543</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.198607308549861</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>9.893174999999999</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.186279375952495</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-4.589314558730251</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>15.735714</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.022287900230746</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>17.75049</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.457273090553976</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>15.718183</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.090302505160245</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>8.99539</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.078626996454557</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-2.301787392491828</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>9.990335999999999</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.6490331237616309</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>12.850888</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.055027397673135</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>13.832999</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.9595354287183935</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>8.669463</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.039545460126122</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>12.56581028253041</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.443197</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.1184830476492889</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.549252</v>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>7.757569</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.9302012864655101</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>223.047216</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.49050676041479</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>174.58004</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>14.33260684295683</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>115.931617</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>8.041675837619275</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>50.401458</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>6.043581574503221</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-34.32385300383451</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1276,549 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>4.034021</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>74.3497197984864</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4.18126</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>87.01788823360717</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>2.888687</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>86.22135530539666</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.989328</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>90.78760815881554</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-49.3847864991717</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>4.56055931930366</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>5.680534969609107</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>4.734898061824038</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>4.117215754182049</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-47.23447294452481</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>4.194194411893829</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.373590911909908</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>6.64373349968585</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.09812822962292</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-68.78023545202875</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.789876326501575</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.620958581561347</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.7800162074312414</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.9899818026148073</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-47.69200930954229</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.7924820549757471</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.07596162210737104</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.06238219391310967</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-90.52890528905289</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.084763671475667</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.1704453931669503</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.2502749741442223</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.110724476559686</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.060620288038147</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.2225760861292147</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.6565260000000001</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>12.10021567572927</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.5166854720961461</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.5855424644536835</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1850,441 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>877.84325</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>57.23178426278972</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>532.0892260000001</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>43.85626820872</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>871.521434</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>60.59449957491692</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>516.795989</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>62.04949802755145</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>8.861318829725008</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>91.645826</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.97493247480933</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>113.122987</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.323910006107782</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>138.219884</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.610050166916567</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>93.320256</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.20456652886793</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>16.39321756680148</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>94.600359</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.167555924671583</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>106.782116</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.801277850325521</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>76.710714</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.333485954017941</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>40.607513</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.875571504865666</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-22.90736394623043</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>61.347085</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.999578664950745</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>59.658652</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.9172313875844</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>68.79468199999999</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.783105918661255</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>36.927705</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.433752597409385</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-12.55802773586422</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>98.60197700000001</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>6.428445027684104</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>134.893561</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>11.11830103255151</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>73.09612</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.082173127905052</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>34.488266</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.140859524241915</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-36.03037799099914</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>43.199156</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.816408027887209</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>49.750826</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.100600918127518</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>49.980616</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.475015411917094</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>26.109919</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.134907007743879</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-26.76103237250952</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>22.779397</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.485123380216729</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>15.140034</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.24788354912704</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>17.279543</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.201399323207303</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>9.893174999999999</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.187831476472085</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-4.589314558730251</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>15.48827</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.009771764200315</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>17.477537</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.440547022652602</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>15.559549</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.081812848754789</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>8.950524</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.07465137714827</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-1.88296934959562</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>9.76277</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.6364926157912995</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>12.688785</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.045844815137796</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>13.610413</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.9462947583030342</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>8.624805</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.035543681116913</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>14.10524909242932</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.443197</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1189522952491056</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.549252</v>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>7.757569</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.9314183403309935</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>218.124522</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.22082539853001</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>170.210038</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.02918291441673</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>112.962522</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.853974927380321</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>49.401265</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>5.931399934251515</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-33.87966825361215</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2316,443 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>18.096188</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>27.62378125795066</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>0.614408</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.9568318563549961</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>15.553449</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>19.31144763300176</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>28.956305</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>48.98166125011365</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>547.2862481286994</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>3.964856</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.052341789512424</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2.581763</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>4.020639516345236</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>9.201219</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>11.42440232248685</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>6.936132</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>11.7329634430247</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>189.1562226810725</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>8.511174</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>12.99228372430464</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>7.036445</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>10.95801931532439</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>7.672422</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>9.526219918893268</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>3.535489</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.980532549007999</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>1.761335753008875</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>0.675766</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.031554942154684</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.1918622229901556</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1.553292</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.928595844996217</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3.452595</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.840311418319296</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>134.2012617012617</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>5.8247</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>8.891388545100506</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>4.582705</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>7.136752991948872</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>6.452353</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>8.011359864242444</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.004419</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.082189654771395</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>6.758801398046765</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>5.149116</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>8.018838004822875</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>3.56329</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.424246238644485</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.255763</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.815784476870931</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-1.101631380732959</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>0.676705</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.032988323074534</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.419804</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.211093763395413</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1.195424</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.484260370496183</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2.012655</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.404549904531932</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>74.37058150817855</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>2.036124</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.108137691212289</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>4.083315</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>6.359041339846162</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.239532</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.539025672532821</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.570732</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.657005537782307</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>76.6663854818664</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0.718333</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.118676673921976</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2.145364</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.66372330276887</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.353699</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.289878693176412</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>30.98022861809322</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>2.216057</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.382804921298916</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.858283</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>4.451270538270869</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2.716056</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>3.372304960288886</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.249647</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.113867291984277</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-13.63984414844874</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>23.507883</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>35.88471880539134</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>35.045373</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>54.57697377677905</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>29.247646</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>36.31441387164823</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>4.789189</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>8.1012557804171</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-70.3785312265006</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
